--- a/Projects/CCRU/Data/KPIs_2020/INPUT/PoS 2020 - FT S - Bread.xlsx
+++ b/Projects/CCRU/Data/KPIs_2020/INPUT/PoS 2020 - FT S - Bread.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2020\FT POS 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2020\POS 2020 тех файлы\FT POS 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FED4692-B527-4380-A294-A0603906808F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EE71FB-0A41-4FB2-A112-CE1BD5CAD4BF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="501" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -17,9 +17,9 @@
     <sheet name="Traditional Trade" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_" localSheetId="0">'Traditional Trade'!$A$1:$AN$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Traditional Trade'!$A$1:$AN$35</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AN$35</definedName>
+    <definedName name="_" localSheetId="0">'Traditional Trade'!$A$1:$AO$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Traditional Trade'!$A$1:$AO$35</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AO$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="169">
   <si>
     <t>Sorting</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Sub brand</t>
   </si>
 </sst>
 </file>
@@ -1060,12 +1063,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMM35"/>
+  <dimension ref="A1:AMN35"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="X15" sqref="X15:X18"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1088,33 +1091,34 @@
     <col min="16" max="16" width="32" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="43.6640625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="35.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="90.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10" style="3"/>
-    <col min="39" max="39" width="12.44140625" style="3"/>
-    <col min="40" max="40" width="10.33203125" style="3"/>
-    <col min="41" max="1027" width="10.5546875" style="3"/>
-    <col min="1028" max="16384" width="8.88671875" style="4"/>
+    <col min="19" max="19" width="12.44140625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="21.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="43.6640625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="35.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="90.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10" style="3"/>
+    <col min="40" max="40" width="12.44140625" style="3"/>
+    <col min="41" max="41" width="10.33203125" style="3"/>
+    <col min="42" max="1028" width="10.5546875" style="3"/>
+    <col min="1029" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1170,73 +1174,76 @@
         <v>15</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1268,27 +1275,28 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="U2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
-      <c r="AD2" s="4"/>
+      <c r="AB2" s="4"/>
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
-      <c r="AI2" s="4"/>
+      <c r="AG2" s="4"/>
       <c r="AJ2" s="4"/>
-      <c r="AK2" s="3">
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="3">
         <v>1</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AM2" s="3">
         <v>500</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AN2" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
     </row>
-    <row r="3" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1328,31 +1336,32 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
-      <c r="X3" s="4"/>
+      <c r="U3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="3" t="s">
+      <c r="AB3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AF3" s="4"/>
-      <c r="AI3" s="4"/>
+      <c r="AG3" s="4"/>
       <c r="AJ3" s="4"/>
-      <c r="AK3" s="3">
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="3">
         <v>2</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AM3" s="3">
         <v>1</v>
       </c>
-      <c r="AM3" s="5" t="s">
+      <c r="AN3" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AN3" s="3">
+      <c r="AO3" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1390,41 +1399,42 @@
         <v>129</v>
       </c>
       <c r="R4" s="4"/>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="4"/>
+      <c r="T4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF4" s="6">
+      <c r="AG4" s="6">
         <v>0.04</v>
       </c>
-      <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
-      <c r="AK4" s="3">
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="3">
         <v>3</v>
       </c>
-      <c r="AL4" s="3">
+      <c r="AM4" s="3">
         <v>2</v>
       </c>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="3">
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1462,41 +1472,42 @@
         <v>130</v>
       </c>
       <c r="R5" s="4"/>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="4"/>
+      <c r="T5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="3" t="s">
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF5" s="6">
+      <c r="AG5" s="6">
         <v>0.04</v>
       </c>
-      <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
-      <c r="AK5" s="3">
-        <v>3</v>
-      </c>
+      <c r="AK5" s="4"/>
       <c r="AL5" s="3">
         <v>3</v>
       </c>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="3">
+      <c r="AM5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1534,41 +1545,42 @@
         <v>131</v>
       </c>
       <c r="R6" s="4"/>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="4"/>
+      <c r="T6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
-      <c r="AA6" s="3" t="s">
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="3" t="s">
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF6" s="6">
+      <c r="AG6" s="6">
         <v>0.04</v>
       </c>
-      <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
-      <c r="AK6" s="3">
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="3">
         <v>3</v>
       </c>
-      <c r="AL6" s="3">
+      <c r="AM6" s="3">
         <v>4</v>
       </c>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="3">
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1606,41 +1618,42 @@
         <v>132</v>
       </c>
       <c r="R7" s="4"/>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="4"/>
+      <c r="T7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
-      <c r="AA7" s="3" t="s">
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="3" t="s">
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF7" s="6">
+      <c r="AG7" s="6">
         <v>0.04</v>
       </c>
-      <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
-      <c r="AK7" s="3">
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="3">
         <v>3</v>
       </c>
-      <c r="AL7" s="3">
+      <c r="AM7" s="3">
         <v>5</v>
       </c>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="3">
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1678,41 +1691,42 @@
         <v>134</v>
       </c>
       <c r="R8" s="4"/>
-      <c r="S8" s="3" t="s">
+      <c r="S8" s="4"/>
+      <c r="T8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="3" t="s">
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="3" t="s">
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF8" s="6">
+      <c r="AG8" s="6">
         <v>0.04</v>
       </c>
-      <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
-      <c r="AK8" s="3">
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="3">
         <v>3</v>
       </c>
-      <c r="AL8" s="3">
+      <c r="AM8" s="3">
         <v>6</v>
       </c>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="3">
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1750,41 +1764,42 @@
         <v>136</v>
       </c>
       <c r="R9" s="4"/>
-      <c r="S9" s="3" t="s">
+      <c r="S9" s="4"/>
+      <c r="T9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
-      <c r="AA9" s="3" t="s">
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="3" t="s">
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF9" s="6">
+      <c r="AG9" s="6">
         <v>0.04</v>
       </c>
-      <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
-      <c r="AK9" s="3">
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="3">
         <v>3</v>
       </c>
-      <c r="AL9" s="3">
+      <c r="AM9" s="3">
         <v>7</v>
       </c>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="3">
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1822,41 +1837,42 @@
         <v>135</v>
       </c>
       <c r="R10" s="4"/>
-      <c r="S10" s="3" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
-      <c r="AA10" s="3" t="s">
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="3" t="s">
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF10" s="6">
+      <c r="AG10" s="6">
         <v>0.04</v>
       </c>
-      <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
-      <c r="AK10" s="3">
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="3">
         <v>3</v>
       </c>
-      <c r="AL10" s="3">
+      <c r="AM10" s="3">
         <v>8</v>
       </c>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="3">
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1895,30 +1911,31 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
-      <c r="X11" s="4"/>
+      <c r="U11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="3" t="s">
+      <c r="AB11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
-      <c r="AK11" s="3">
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="3">
         <v>2</v>
       </c>
-      <c r="AL11" s="3">
+      <c r="AM11" s="3">
         <v>9</v>
       </c>
-      <c r="AM11" s="10" t="s">
+      <c r="AN11" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AN11" s="3">
+      <c r="AO11" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1956,41 +1973,42 @@
         <v>149</v>
       </c>
       <c r="R12" s="4"/>
-      <c r="S12" s="3" t="s">
+      <c r="S12" s="4"/>
+      <c r="T12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="3" t="s">
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="3" t="s">
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AG12" s="6">
         <v>0.04</v>
       </c>
-      <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
-      <c r="AK12" s="3">
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="3">
         <v>3</v>
       </c>
-      <c r="AL12" s="3">
+      <c r="AM12" s="3">
         <v>10</v>
       </c>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="3">
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2028,41 +2046,42 @@
         <v>150</v>
       </c>
       <c r="R13" s="4"/>
-      <c r="S13" s="3" t="s">
+      <c r="S13" s="4"/>
+      <c r="T13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="Y13" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
-      <c r="AA13" s="3" t="s">
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="3" t="s">
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF13" s="6">
+      <c r="AG13" s="6">
         <v>0.04</v>
       </c>
-      <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
-      <c r="AK13" s="3">
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="3">
         <v>3</v>
       </c>
-      <c r="AL13" s="3">
+      <c r="AM13" s="3">
         <v>11</v>
       </c>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="3">
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2101,31 +2120,32 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="X14" s="4"/>
+      <c r="U14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="3" t="s">
+      <c r="AB14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AF14" s="4"/>
-      <c r="AI14" s="4"/>
+      <c r="AG14" s="4"/>
       <c r="AJ14" s="4"/>
-      <c r="AK14" s="3">
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="3">
         <v>2</v>
       </c>
-      <c r="AL14" s="3">
+      <c r="AM14" s="3">
         <v>12</v>
       </c>
-      <c r="AM14" s="5" t="s">
+      <c r="AN14" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AN14" s="3">
+      <c r="AO14" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2163,41 +2183,42 @@
         <v>57</v>
       </c>
       <c r="R15" s="4"/>
-      <c r="S15" s="3" t="s">
+      <c r="S15" s="4"/>
+      <c r="T15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
-      <c r="AA15" s="3" t="s">
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="3" t="s">
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF15" s="6">
+      <c r="AG15" s="6">
         <v>0.04</v>
       </c>
-      <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
-      <c r="AK15" s="3">
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="3">
         <v>3</v>
       </c>
-      <c r="AL15" s="3">
+      <c r="AM15" s="3">
         <v>13</v>
       </c>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="3">
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2235,41 +2256,42 @@
         <v>60</v>
       </c>
       <c r="R16" s="4"/>
-      <c r="S16" s="3" t="s">
+      <c r="S16" s="4"/>
+      <c r="T16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="X16" s="3" t="s">
+      <c r="Y16" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
-      <c r="AA16" s="3" t="s">
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="3" t="s">
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF16" s="6">
+      <c r="AG16" s="6">
         <v>0.04</v>
       </c>
-      <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
-      <c r="AK16" s="3">
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="3">
         <v>3</v>
       </c>
-      <c r="AL16" s="3">
+      <c r="AM16" s="3">
         <v>14</v>
       </c>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="3">
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2307,41 +2329,42 @@
         <v>63</v>
       </c>
       <c r="R17" s="4"/>
-      <c r="S17" s="3" t="s">
+      <c r="S17" s="4"/>
+      <c r="T17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="X17" s="3" t="s">
+      <c r="Y17" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
-      <c r="AA17" s="3" t="s">
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="3" t="s">
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF17" s="6">
+      <c r="AG17" s="6">
         <v>0.04</v>
       </c>
-      <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
-      <c r="AK17" s="3">
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="3">
         <v>3</v>
       </c>
-      <c r="AL17" s="3">
+      <c r="AM17" s="3">
         <v>15</v>
       </c>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="3">
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2379,41 +2402,42 @@
         <v>133</v>
       </c>
       <c r="R18" s="4"/>
-      <c r="S18" s="3" t="s">
+      <c r="S18" s="4"/>
+      <c r="T18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="X18" s="3" t="s">
+      <c r="Y18" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
-      <c r="AA18" s="3" t="s">
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="3" t="s">
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF18" s="6">
+      <c r="AG18" s="6">
         <v>0.04</v>
       </c>
-      <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
-      <c r="AK18" s="3">
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="3">
         <v>3</v>
       </c>
-      <c r="AL18" s="3">
+      <c r="AM18" s="3">
         <v>16</v>
       </c>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="3">
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2445,26 +2469,27 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-      <c r="Y19" s="4"/>
+      <c r="U19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
-      <c r="AD19" s="4"/>
+      <c r="AB19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
-      <c r="AI19" s="4"/>
+      <c r="AG19" s="4"/>
       <c r="AJ19" s="4"/>
-      <c r="AK19" s="3">
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="3">
         <v>1</v>
       </c>
-      <c r="AL19" s="3">
+      <c r="AM19" s="3">
         <v>501</v>
       </c>
-      <c r="AM19" s="10" t="s">
+      <c r="AN19" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
     </row>
-    <row r="20" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2496,28 +2521,29 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-      <c r="Y20" s="4"/>
+      <c r="U20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
-      <c r="AD20" s="4"/>
+      <c r="AB20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
-      <c r="AI20" s="4"/>
+      <c r="AG20" s="4"/>
       <c r="AJ20" s="4"/>
-      <c r="AK20" s="3">
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="3">
         <v>1</v>
       </c>
-      <c r="AL20" s="3">
+      <c r="AM20" s="3">
         <v>17</v>
       </c>
-      <c r="AM20" s="3">
+      <c r="AN20" s="3">
         <v>18</v>
       </c>
-      <c r="AN20" s="3">
+      <c r="AO20" s="3">
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2551,38 +2577,39 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="3" t="s">
+      <c r="S21" s="4"/>
+      <c r="T21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T21" s="4"/>
-      <c r="Y21" s="3" t="s">
+      <c r="U21" s="4"/>
+      <c r="Z21" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="3" t="s">
+      <c r="AB21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF21" s="6">
+      <c r="AG21" s="6">
         <v>0.1</v>
       </c>
-      <c r="AI21" s="4"/>
       <c r="AJ21" s="4"/>
-      <c r="AK21" s="3">
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="3">
         <v>2</v>
       </c>
-      <c r="AL21" s="3">
+      <c r="AM21" s="3">
         <v>18</v>
       </c>
-      <c r="AM21" s="5">
+      <c r="AN21" s="5">
         <v>19</v>
       </c>
-      <c r="AN21" s="3">
+      <c r="AO21" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2620,36 +2647,37 @@
         <v>110</v>
       </c>
       <c r="R22" s="4"/>
-      <c r="S22" s="3" t="s">
+      <c r="S22" s="4"/>
+      <c r="T22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Y22" s="3" t="s">
+      <c r="Z22" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="3" t="s">
+      <c r="AB22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF22" s="4"/>
-      <c r="AI22" s="4"/>
+      <c r="AG22" s="4"/>
       <c r="AJ22" s="4"/>
-      <c r="AK22" s="3">
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="3">
         <v>3</v>
       </c>
-      <c r="AL22" s="3">
+      <c r="AM22" s="3">
         <v>19</v>
       </c>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="3">
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2681,28 +2709,29 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
-      <c r="Y23" s="4"/>
+      <c r="U23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
-      <c r="AD23" s="4"/>
+      <c r="AB23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
-      <c r="AI23" s="4"/>
+      <c r="AG23" s="4"/>
       <c r="AJ23" s="4"/>
-      <c r="AK23" s="3">
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="3">
         <v>1</v>
       </c>
-      <c r="AL23" s="3">
+      <c r="AM23" s="3">
         <v>20</v>
       </c>
-      <c r="AM23" s="3">
+      <c r="AN23" s="3">
         <v>21</v>
       </c>
-      <c r="AN23" s="3">
+      <c r="AO23" s="3">
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2736,38 +2765,39 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="3" t="s">
+      <c r="S24" s="4"/>
+      <c r="T24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T24" s="4"/>
-      <c r="Y24" s="3" t="s">
+      <c r="U24" s="4"/>
+      <c r="Z24" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="3" t="s">
+      <c r="AB24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF24" s="6">
+      <c r="AG24" s="6">
         <v>0.1</v>
       </c>
-      <c r="AI24" s="4"/>
       <c r="AJ24" s="4"/>
-      <c r="AK24" s="3">
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="3">
         <v>2</v>
       </c>
-      <c r="AL24" s="3">
+      <c r="AM24" s="3">
         <v>21</v>
       </c>
-      <c r="AM24" s="5">
+      <c r="AN24" s="5">
         <v>22</v>
       </c>
-      <c r="AN24" s="3">
+      <c r="AO24" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2805,36 +2835,37 @@
         <v>66</v>
       </c>
       <c r="R25" s="4"/>
-      <c r="S25" s="3" t="s">
+      <c r="S25" s="4"/>
+      <c r="T25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="U25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Y25" s="3" t="s">
+      <c r="Z25" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="3" t="s">
+      <c r="AB25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF25" s="4"/>
-      <c r="AI25" s="4"/>
+      <c r="AG25" s="4"/>
       <c r="AJ25" s="4"/>
-      <c r="AK25" s="3">
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="3">
         <v>3</v>
       </c>
-      <c r="AL25" s="3">
+      <c r="AM25" s="3">
         <v>22</v>
       </c>
-      <c r="AM25" s="4"/>
-      <c r="AN25" s="3">
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2866,28 +2897,29 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
-      <c r="Y26" s="4"/>
+      <c r="U26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
-      <c r="AD26" s="4"/>
+      <c r="AB26" s="4"/>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
-      <c r="AI26" s="4"/>
+      <c r="AG26" s="4"/>
       <c r="AJ26" s="4"/>
-      <c r="AK26" s="3">
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="3">
         <v>1</v>
       </c>
-      <c r="AL26" s="3">
+      <c r="AM26" s="3">
         <v>502</v>
       </c>
-      <c r="AM26" s="5" t="s">
+      <c r="AN26" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AN26" s="4">
+      <c r="AO26" s="4">
         <v>502</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2919,25 +2951,26 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
-      <c r="Y27" s="4"/>
+      <c r="U27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
-      <c r="AD27" s="4"/>
+      <c r="AB27" s="4"/>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
-      <c r="AI27" s="4"/>
+      <c r="AG27" s="4"/>
       <c r="AJ27" s="4"/>
-      <c r="AK27" s="3">
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="3">
         <v>1</v>
       </c>
-      <c r="AL27" s="3">
+      <c r="AM27" s="3">
         <v>23</v>
       </c>
-      <c r="AM27" s="3">
+      <c r="AN27" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2969,38 +3002,39 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="3" t="s">
+      <c r="S28" s="4"/>
+      <c r="T28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="T28" s="4"/>
-      <c r="Y28" s="4"/>
+      <c r="U28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="3" t="s">
+      <c r="AB28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AF28" s="6">
+      <c r="AG28" s="6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="3" t="s">
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AK28" s="3">
+      <c r="AL28" s="3">
         <v>2</v>
       </c>
-      <c r="AL28" s="3">
+      <c r="AM28" s="3">
         <v>24</v>
       </c>
-      <c r="AM28" s="5" t="s">
+      <c r="AN28" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="AN28" s="3">
+      <c r="AO28" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3041,36 +3075,37 @@
       </c>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="3" t="s">
+      <c r="T29" s="4"/>
+      <c r="U29" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Z29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Z29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="3" t="s">
+      <c r="AA29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF29" s="4"/>
-      <c r="AI29" s="3" t="s">
+      <c r="AG29" s="4"/>
+      <c r="AJ29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AJ29" s="3" t="s">
+      <c r="AK29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AK29" s="3">
+      <c r="AL29" s="3">
         <v>3</v>
       </c>
-      <c r="AL29" s="3">
+      <c r="AM29" s="3">
         <v>25</v>
       </c>
-      <c r="AM29" s="4"/>
-      <c r="AN29" s="3">
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3109,33 +3144,34 @@
       </c>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="3" t="s">
+      <c r="T30" s="4"/>
+      <c r="U30" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Y30" s="3" t="s">
+      <c r="Z30" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="3" t="s">
+      <c r="AB30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF30" s="4"/>
-      <c r="AI30" s="4"/>
+      <c r="AG30" s="4"/>
       <c r="AJ30" s="4"/>
-      <c r="AK30" s="3">
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="3">
         <v>3</v>
       </c>
-      <c r="AL30" s="3">
+      <c r="AM30" s="3">
         <v>26</v>
       </c>
-      <c r="AM30" s="4"/>
-      <c r="AN30" s="3">
+      <c r="AN30" s="4"/>
+      <c r="AO30" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3167,28 +3203,29 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
-      <c r="Y31" s="4"/>
+      <c r="U31" s="4"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
-      <c r="AD31" s="4"/>
+      <c r="AB31" s="4"/>
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
-      <c r="AI31" s="4"/>
+      <c r="AG31" s="4"/>
       <c r="AJ31" s="4"/>
-      <c r="AK31" s="3">
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="3">
         <v>1</v>
       </c>
-      <c r="AL31" s="3">
+      <c r="AM31" s="3">
         <v>27</v>
       </c>
-      <c r="AM31" s="5">
+      <c r="AN31" s="5">
         <v>28</v>
       </c>
-      <c r="AN31" s="3">
+      <c r="AO31" s="3">
         <v>502</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3218,37 +3255,38 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="4" t="s">
+      <c r="S32" s="4"/>
+      <c r="T32" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="Y32" s="3" t="s">
+      <c r="Z32" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AA32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="3" t="s">
+      <c r="AB32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AI32" s="3" t="s">
+      <c r="AJ32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AJ32" s="3" t="s">
+      <c r="AK32" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AK32" s="3">
+      <c r="AL32" s="3">
         <v>2</v>
       </c>
-      <c r="AL32" s="3">
+      <c r="AM32" s="3">
         <v>28</v>
       </c>
-      <c r="AM32" s="11" t="s">
+      <c r="AN32" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="AN32" s="3">
+      <c r="AO32" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3278,43 +3316,44 @@
         <v>1</v>
       </c>
       <c r="R33" s="4"/>
-      <c r="S33" s="4" t="s">
+      <c r="S33" s="4"/>
+      <c r="T33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T33" s="3" t="s">
+      <c r="U33" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="Y33" s="3" t="s">
+      <c r="Z33" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Z33" s="4" t="s">
+      <c r="AA33" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="3" t="s">
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF33" s="6">
+      <c r="AG33" s="6">
         <v>0.05</v>
       </c>
-      <c r="AI33" s="3" t="s">
+      <c r="AJ33" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AJ33" s="3" t="s">
+      <c r="AK33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AK33" s="3">
+      <c r="AL33" s="3">
         <v>3</v>
       </c>
-      <c r="AL33" s="3">
+      <c r="AM33" s="3">
         <v>29</v>
       </c>
-      <c r="AM33" s="4"/>
-      <c r="AN33" s="3">
+      <c r="AN33" s="4"/>
+      <c r="AO33" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3350,39 +3389,40 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="3" t="s">
+      <c r="S34" s="4"/>
+      <c r="T34" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="T34" s="4"/>
-      <c r="Y34" s="3" t="s">
+      <c r="U34" s="4"/>
+      <c r="Z34" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Z34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="3" t="s">
+      <c r="AA34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF34" s="6">
+      <c r="AG34" s="6">
         <v>0.04</v>
       </c>
-      <c r="AI34" s="3" t="s">
+      <c r="AJ34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AJ34" s="3" t="s">
+      <c r="AK34" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AK34" s="3">
+      <c r="AL34" s="3">
         <v>3</v>
       </c>
-      <c r="AL34" s="3">
+      <c r="AM34" s="3">
         <v>30</v>
       </c>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="3">
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3410,38 +3450,38 @@
       <c r="P35" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="T35" s="3" t="s">
+      <c r="U35" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Y35" s="3" t="s">
+      <c r="Z35" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="3" t="s">
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF35" s="4">
+      <c r="AG35" s="4">
         <v>0.05</v>
       </c>
-      <c r="AI35" s="3" t="s">
+      <c r="AJ35" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AJ35" s="3" t="s">
+      <c r="AK35" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AK35" s="3">
+      <c r="AL35" s="3">
         <v>3</v>
       </c>
-      <c r="AL35" s="3">
+      <c r="AM35" s="3">
         <v>31</v>
       </c>
-      <c r="AM35" s="4"/>
-      <c r="AN35" s="3">
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="3">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AO35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
